--- a/RESILIADATA.xlsx
+++ b/RESILIADATA.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\CURSO Resília\Trabalho individual Modulo 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\CURSO Resília\Trabalho individual Modulo 3\Modelagem_RESILIADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C1B04-12BE-413B-870D-030167653327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF886D-9421-49AC-8D0D-5A76575F52AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{3970671A-E54E-49FA-B3AC-7BB985BF9F56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{3970671A-E54E-49FA-B3AC-7BB985BF9F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas Parceiras" sheetId="1" r:id="rId1"/>
     <sheet name="Tecnologias" sheetId="3" r:id="rId2"/>
     <sheet name="Áreas" sheetId="2" r:id="rId3"/>
-    <sheet name="Colaboradores" sheetId="4" r:id="rId4"/>
+    <sheet name="Tecnologia_Área" sheetId="5" r:id="rId4"/>
+    <sheet name="Colaboradores" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>CNPJ</t>
   </si>
@@ -145,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +164,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +324,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="43">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -541,43 +548,15 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -653,15 +632,125 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -972,47 +1061,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F65A047-4FED-43FD-8CFB-D4D279FBD0A5}" name="Tabela1" displayName="Tabela1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F65A047-4FED-43FD-8CFB-D4D279FBD0A5}" name="Tabela1" displayName="Tabela1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A1:F6" xr:uid="{1F65A047-4FED-43FD-8CFB-D4D279FBD0A5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BEFA7291-9282-4297-AAAA-F0793DB358B7}" name="CNPJ" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{6C1C4AE7-0540-493C-BD03-C3DE30633448}" name="Nome" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{20231D23-04C4-4C1F-BAF2-42EAB0D2D150}" name="Endereço" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{CBB5E4B1-FDBF-4BC9-8AF1-C5B672F3EC3F}" name="Telefone" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{5D82AE64-6A4F-4FB2-BE80-5D23921FAE33}" name="E-mail" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{49E3BEF9-9B53-401E-ABB1-29C352E8020A}" name="Tecnologia_ID" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{BEFA7291-9282-4297-AAAA-F0793DB358B7}" name="CNPJ" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{6C1C4AE7-0540-493C-BD03-C3DE30633448}" name="Nome" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{20231D23-04C4-4C1F-BAF2-42EAB0D2D150}" name="Endereço" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{CBB5E4B1-FDBF-4BC9-8AF1-C5B672F3EC3F}" name="Telefone" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{5D82AE64-6A4F-4FB2-BE80-5D23921FAE33}" name="E-mail" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{49E3BEF9-9B53-401E-ABB1-29C352E8020A}" name="Tecnologia_ID" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}" name="Tabela3" displayName="Tabela3" ref="A1:D6" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:D6" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{405C50D8-873E-4511-9D45-906F2C334AF0}" name="ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{476B99F5-EA59-4F1F-9129-32D64E7EF79D}" name="Nome" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D6C82EAC-6C96-4BC7-928D-0D820FBE7B31}" name="Descrição" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{F6580F08-2229-42C2-864B-522EAECB0504}" name="Área_ID" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}" name="Tabela3" displayName="Tabela3" ref="A1:C6" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A1:C6" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{405C50D8-873E-4511-9D45-906F2C334AF0}" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{476B99F5-EA59-4F1F-9129-32D64E7EF79D}" name="Nome" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{D6C82EAC-6C96-4BC7-928D-0D820FBE7B31}" name="Descrição" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A5618475-1CFC-4BBA-9EAF-5F573624EDC8}" name="Tabela2" displayName="Tabela2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A5618475-1CFC-4BBA-9EAF-5F573624EDC8}" name="Tabela2" displayName="Tabela2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:D6" xr:uid="{A5618475-1CFC-4BBA-9EAF-5F573624EDC8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9045DE05-618B-49A9-9918-88C1758DADB9}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E4AF91DC-8508-46B1-8C4C-545DDFEB1624}" name="Nome" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A72E4E4F-5B84-4744-A2D4-BB676C017BC8}" name="Descrição" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{D885AB0D-DD3F-41AF-9472-4F52F5797995}" name="Tecnologia_ID" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{9045DE05-618B-49A9-9918-88C1758DADB9}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{E4AF91DC-8508-46B1-8C4C-545DDFEB1624}" name="Nome" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A72E4E4F-5B84-4744-A2D4-BB676C017BC8}" name="Descrição" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D885AB0D-DD3F-41AF-9472-4F52F5797995}" name="CNPJ" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31187FAA-60F6-44EE-9D7D-8B5EEBB49A9C}" name="Tabela26" displayName="Tabela26" ref="A1:C7" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:C7" xr:uid="{31187FAA-60F6-44EE-9D7D-8B5EEBB49A9C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{59C962AA-BC6D-43D6-A8AC-48D060849921}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CF961039-056E-46FD-8C2F-83A77E4F6A8D}" name="Tecnologia_ID" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{05ACCC5F-20FE-446F-AB98-99DC46836DF5}" name="Área_ID" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8113F785-B175-4918-B035-7A627D6E6B5A}" name="Tabela4" displayName="Tabela4" ref="A1:G6" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G6" xr:uid="{8113F785-B175-4918-B035-7A627D6E6B5A}"/>
   <tableColumns count="7">
@@ -1328,7 +1428,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,20 +1539,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615108E4-FB7D-418D-B8F5-48B7227A722A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1462,11 +1561,8 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1476,11 +1572,8 @@
       <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1490,11 +1583,8 @@
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1504,21 +1594,16 @@
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1534,7 +1619,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,8 +1653,8 @@
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
+      <c r="D2" s="4">
+        <v>123456789</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,8 +1667,8 @@
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6">
-        <v>2</v>
+      <c r="D3" s="4">
+        <v>987654321</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,11 +1699,99 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C8BB3-33DB-4AF4-B08C-DB2528AFE435}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7984F39-884B-4D07-B5BD-24C9970B83F3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESILIADATA.xlsx
+++ b/RESILIADATA.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\CURSO Resília\Trabalho individual Modulo 3\Modelagem_RESILIADATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF886D-9421-49AC-8D0D-5A76575F52AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629D8E1-135D-4A14-A85C-C72D5908D4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{3970671A-E54E-49FA-B3AC-7BB985BF9F56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3970671A-E54E-49FA-B3AC-7BB985BF9F56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Empresas Parceiras" sheetId="1" r:id="rId1"/>
+    <sheet name="Empresa Parceira" sheetId="1" r:id="rId1"/>
     <sheet name="Tecnologias" sheetId="3" r:id="rId2"/>
     <sheet name="Áreas" sheetId="2" r:id="rId3"/>
     <sheet name="Tecnologia_Área" sheetId="5" r:id="rId4"/>
-    <sheet name="Colaboradores" sheetId="4" r:id="rId5"/>
+    <sheet name="Empresa-Parceira_Tecnologia" sheetId="6" r:id="rId5"/>
+    <sheet name="Empresa-Parceira_Área" sheetId="7" r:id="rId6"/>
+    <sheet name="Colaboradores" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>CNPJ</t>
   </si>
@@ -61,9 +63,6 @@
     <t>CPF</t>
   </si>
   <si>
-    <t>Empresa Parceira_CNPJ</t>
-  </si>
-  <si>
     <t>TechSolutions</t>
   </si>
   <si>
@@ -140,13 +139,25 @@
   </si>
   <si>
     <t xml:space="preserve">Linguagem de programação orientada a objetos </t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Empresa-Parceira_Registro</t>
+  </si>
+  <si>
+    <t>Empresa-Parceira_Área_ID</t>
+  </si>
+  <si>
+    <t>Matrícula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,21 +166,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,9 +308,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -318,33 +322,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -458,6 +441,28 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -548,6 +553,226 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -632,26 +857,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -876,7 +1081,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1061,68 +1268,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F65A047-4FED-43FD-8CFB-D4D279FBD0A5}" name="Tabela1" displayName="Tabela1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
-  <autoFilter ref="A1:F6" xr:uid="{1F65A047-4FED-43FD-8CFB-D4D279FBD0A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F65A047-4FED-43FD-8CFB-D4D279FBD0A5}" name="Tabela1" displayName="Tabela1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="A1:F3" xr:uid="{1F65A047-4FED-43FD-8CFB-D4D279FBD0A5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BEFA7291-9282-4297-AAAA-F0793DB358B7}" name="CNPJ" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{6C1C4AE7-0540-493C-BD03-C3DE30633448}" name="Nome" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{20231D23-04C4-4C1F-BAF2-42EAB0D2D150}" name="Endereço" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{CBB5E4B1-FDBF-4BC9-8AF1-C5B672F3EC3F}" name="Telefone" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{5D82AE64-6A4F-4FB2-BE80-5D23921FAE33}" name="E-mail" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{49E3BEF9-9B53-401E-ABB1-29C352E8020A}" name="Tecnologia_ID" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{DEABDDDD-A382-4E52-B50A-E8D8A2B9B83F}" name="Registro" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{BEFA7291-9282-4297-AAAA-F0793DB358B7}" name="CNPJ" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{B40DA8FC-1D12-4292-8830-2C8F19362C1B}" name="Nome" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{338041C4-E16B-4308-B872-8884071100F2}" name="Endereço" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{4F07ACA2-42B0-428A-A001-A33DD266ED06}" name="Telefone" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{BCC59A73-4050-4D98-94F7-1821B7C8FB18}" name="E-mail" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}" name="Tabela3" displayName="Tabela3" ref="A1:C6" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A1:C6" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}" name="Tabela3" displayName="Tabela3" ref="A1:C4" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="A1:C4" xr:uid="{35C8167F-B14B-4266-B283-1A0AA7F28D92}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{405C50D8-873E-4511-9D45-906F2C334AF0}" name="ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{476B99F5-EA59-4F1F-9129-32D64E7EF79D}" name="Nome" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{D6C82EAC-6C96-4BC7-928D-0D820FBE7B31}" name="Descrição" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{405C50D8-873E-4511-9D45-906F2C334AF0}" name="ID" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{476B99F5-EA59-4F1F-9129-32D64E7EF79D}" name="Nome" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D6C82EAC-6C96-4BC7-928D-0D820FBE7B31}" name="Descrição" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A5618475-1CFC-4BBA-9EAF-5F573624EDC8}" name="Tabela2" displayName="Tabela2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A1:D6" xr:uid="{A5618475-1CFC-4BBA-9EAF-5F573624EDC8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9045DE05-618B-49A9-9918-88C1758DADB9}" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{E4AF91DC-8508-46B1-8C4C-545DDFEB1624}" name="Nome" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{A72E4E4F-5B84-4744-A2D4-BB676C017BC8}" name="Descrição" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{D885AB0D-DD3F-41AF-9472-4F52F5797995}" name="CNPJ" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A5618475-1CFC-4BBA-9EAF-5F573624EDC8}" name="Tabela2" displayName="Tabela2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="A1:C3" xr:uid="{A5618475-1CFC-4BBA-9EAF-5F573624EDC8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9045DE05-618B-49A9-9918-88C1758DADB9}" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{E4AF91DC-8508-46B1-8C4C-545DDFEB1624}" name="Nome" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{A72E4E4F-5B84-4744-A2D4-BB676C017BC8}" name="Descrição" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31187FAA-60F6-44EE-9D7D-8B5EEBB49A9C}" name="Tabela26" displayName="Tabela26" ref="A1:C7" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:C7" xr:uid="{31187FAA-60F6-44EE-9D7D-8B5EEBB49A9C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31187FAA-60F6-44EE-9D7D-8B5EEBB49A9C}" name="Tabela26" displayName="Tabela26" ref="A1:C5" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:C5" xr:uid="{31187FAA-60F6-44EE-9D7D-8B5EEBB49A9C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{59C962AA-BC6D-43D6-A8AC-48D060849921}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CF961039-056E-46FD-8C2F-83A77E4F6A8D}" name="Tecnologia_ID" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{05ACCC5F-20FE-446F-AB98-99DC46836DF5}" name="Área_ID" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{59C962AA-BC6D-43D6-A8AC-48D060849921}" name="ID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{CF961039-056E-46FD-8C2F-83A77E4F6A8D}" name="Tecnologia_ID" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{05ACCC5F-20FE-446F-AB98-99DC46836DF5}" name="Área_ID" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8113F785-B175-4918-B035-7A627D6E6B5A}" name="Tabela4" displayName="Tabela4" ref="A1:G6" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G6" xr:uid="{8113F785-B175-4918-B035-7A627D6E6B5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38E2D437-82C5-4E31-A498-AFA665F9B1B5}" name="Tabela7" displayName="Tabela7" ref="A1:C7" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A1:C7" xr:uid="{38E2D437-82C5-4E31-A498-AFA665F9B1B5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0EFC6E47-FFAD-4707-966A-A1B81F90E744}" name="ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5F42AF27-EBFB-4798-8DC5-4A86EC289440}" name="Empresa-Parceira_Registro" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{3FAD5B59-1F2B-4490-A5D0-7F6440249671}" name="Tecnologia_ID" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{624C31C4-4F7A-47A2-8880-096BF719F874}" name="Tabela8" displayName="Tabela8" ref="A1:C5" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:C5" xr:uid="{624C31C4-4F7A-47A2-8880-096BF719F874}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DB938B7D-CAFA-43EA-B12C-3EC4653E98A7}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AAD35D51-73B3-4AD9-A5A4-A2E7D942A248}" name="Empresa-Parceira_Registro" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D62C1F31-C685-4A6C-9F47-1FA653A46BB2}" name="Área_ID" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8113F785-B175-4918-B035-7A627D6E6B5A}" name="Tabela4" displayName="Tabela4" ref="A1:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G3" xr:uid="{8113F785-B175-4918-B035-7A627D6E6B5A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D7E0E339-E6A9-4125-BC88-9931EB6A2E94}" name="CPF" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9D709CDF-A38B-4D70-A822-E384074F7788}" name="Nome" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D9BA80EF-9471-4C4B-A191-9654A98E959F}" name="Endereço" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1EEE4BE8-E981-4346-B4A1-BE4789A87E81}" name="Telefone" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{3CF3D086-C0C9-4466-94A0-E869B9CD2B1C}" name="E-mail" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{81620988-F789-4394-8986-92CDD1C20E18}" name="Empresa Parceira_CNPJ" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{A9EBD03D-9DE6-4059-8171-DBA4DA9570E1}" name="Área_ID" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{698386EC-9378-421A-BAB9-A3883F7D9625}" name="Matrícula" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D7E0E339-E6A9-4125-BC88-9931EB6A2E94}" name="CPF" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9D709CDF-A38B-4D70-A822-E384074F7788}" name="Nome" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D9BA80EF-9471-4C4B-A191-9654A98E959F}" name="Endereço" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1EEE4BE8-E981-4346-B4A1-BE4789A87E81}" name="Telefone" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3CF3D086-C0C9-4466-94A0-E869B9CD2B1C}" name="E-mail" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{81620988-F789-4394-8986-92CDD1C20E18}" name="Empresa-Parceira_Área_ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1425,109 +1655,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906C958C-6D6B-499B-872A-734D52388EB9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5">
         <v>123456789</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>200</v>
+      </c>
+      <c r="B3" s="8">
+        <v>987654321</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>987654321</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="mailto:info@techsolutions.com" xr:uid="{ED1B0AF5-9DA9-480E-8E6B-3B9C47062CE7}"/>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:info@techsolutions.com" xr:uid="{ED1B0AF5-9DA9-480E-8E6B-3B9C47062CE7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1539,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615108E4-FB7D-418D-B8F5-48B7227A722A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1578,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1589,21 +1795,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1616,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D3B30-075F-4191-8C72-D51FC2BF5B76}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1825,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1639,55 +1835,28 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4">
-        <v>987654321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1700,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C8BB3-33DB-4AF4-B08C-DB2528AFE435}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,18 +1936,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1787,119 +1946,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7984F39-884B-4D07-B5BD-24C9970B83F3}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D647D9FE-E869-4178-9F71-8EA437809CD1}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>200</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>200</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>200</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6631F525-4A60-4A4F-A723-7AD4830D3113}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>200</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>200</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7984F39-884B-4D07-B5BD-24C9970B83F3}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
+      <c r="G1" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="4">
         <v>11111111111</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="4">
+        <v>22222222222</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>22222222222</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5">
-        <v>987654321</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
